--- a/fitnotes/routines.xlsx
+++ b/fitnotes/routines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Greenlaw\Google Drive\Fitness\fitnotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B09D0-84F1-441C-AC85-8D0D0BA89AE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42739A3-E687-4416-9552-FDCC60118AAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16875" windowHeight="10972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="routines" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>Legs Strength</t>
   </si>
   <si>
-    <t>Standing Barbell Calf Raise</t>
-  </si>
-  <si>
     <t>20m</t>
   </si>
   <si>
@@ -247,10 +244,13 @@
     <t>Standing Incline Cable Fly</t>
   </si>
   <si>
-    <t>Volume</t>
+    <t>Decline Dumbbell Hammer Curls</t>
   </si>
   <si>
-    <t>Decline Dumbbell Hammer Curls</t>
+    <t>Seated Calf Raise Machine</t>
+  </si>
+  <si>
+    <t>Hypertrophy</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -314,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -732,8 +732,8 @@
   <dimension ref="A1:AC1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2015,7 +2015,7 @@
         <v>43524</v>
       </c>
       <c r="B30" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>43</v>
@@ -2064,7 +2064,7 @@
         <v>43524</v>
       </c>
       <c r="B31" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>43</v>
@@ -2113,7 +2113,7 @@
         <v>43524</v>
       </c>
       <c r="B32" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>43</v>
@@ -2162,7 +2162,7 @@
         <v>43524</v>
       </c>
       <c r="B33" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>43</v>
@@ -2211,7 +2211,7 @@
         <v>43524</v>
       </c>
       <c r="B34" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>43</v>
@@ -2260,7 +2260,7 @@
         <v>43524</v>
       </c>
       <c r="B35" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>43</v>
@@ -2309,7 +2309,7 @@
         <v>43524</v>
       </c>
       <c r="B36" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>43</v>
@@ -2358,7 +2358,7 @@
         <v>43524</v>
       </c>
       <c r="B37" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>43</v>
@@ -2407,7 +2407,7 @@
         <v>43524</v>
       </c>
       <c r="B38" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>43</v>
@@ -2456,7 +2456,7 @@
         <v>43524</v>
       </c>
       <c r="B39" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>43</v>
@@ -2505,7 +2505,7 @@
         <v>43524</v>
       </c>
       <c r="B40" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>43</v>
@@ -2554,7 +2554,7 @@
         <v>43524</v>
       </c>
       <c r="B41" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>43</v>
@@ -2603,7 +2603,7 @@
         <v>43524</v>
       </c>
       <c r="B42" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>43</v>
@@ -2652,7 +2652,7 @@
         <v>43524</v>
       </c>
       <c r="B43" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>43</v>
@@ -2701,7 +2701,7 @@
         <v>43524</v>
       </c>
       <c r="B44" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>43</v>
@@ -2746,7 +2746,7 @@
         <v>43524</v>
       </c>
       <c r="B45" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>43</v>
@@ -2791,7 +2791,7 @@
         <v>43524</v>
       </c>
       <c r="B46" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>43</v>
@@ -2800,7 +2800,7 @@
         <v>59</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="6"/>
@@ -2836,7 +2836,7 @@
         <v>43524</v>
       </c>
       <c r="B47" s="4">
-        <v>43646</v>
+        <v>43707</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>43</v>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47" s="6">
         <v>1</v>
@@ -2894,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="6"/>
@@ -2905,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -2941,7 +2941,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2986,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="9"/>
@@ -3031,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="6"/>
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -3078,7 +3078,7 @@
         <v>44</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="6"/>
@@ -3123,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="6"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -3165,7 +3165,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>15</v>
@@ -3212,10 +3212,10 @@
         <v>43</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="6">
@@ -3259,10 +3259,10 @@
         <v>43</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="10">
         <v>0.72499999999999998</v>
@@ -3306,7 +3306,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -3353,10 +3353,10 @@
         <v>43</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="6">
@@ -3400,7 +3400,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>15</v>
@@ -3446,11 +3446,11 @@
       <c r="C60" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>75</v>
+      <c r="D60" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="6">
@@ -3493,8 +3493,8 @@
       <c r="C61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>75</v>
+      <c r="D61" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>22</v>
@@ -3540,8 +3540,8 @@
       <c r="C62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>75</v>
+      <c r="D62" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -3587,8 +3587,8 @@
       <c r="C63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>75</v>
+      <c r="D63" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>25</v>
@@ -3634,11 +3634,11 @@
       <c r="C64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>75</v>
+      <c r="D64" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="6">
